--- a/LF/TAS/Mozambique/November 2021/mz_lf_tas2_2_participant_202111.xlsx
+++ b/LF/TAS/Mozambique/November 2021/mz_lf_tas2_2_participant_202111.xlsx
@@ -150,6 +150,87 @@
     <t>O entrevistado deu o  consentimento?</t>
   </si>
   <si>
+    <t>select_one sex_list</t>
+  </si>
+  <si>
+    <t>p_sex</t>
+  </si>
+  <si>
+    <t>Sex of respondent</t>
+  </si>
+  <si>
+    <t>Sexo do entrevistado</t>
+  </si>
+  <si>
+    <t>${p_consent} = 'Sim'</t>
+  </si>
+  <si>
+    <t>p_age_yrs</t>
+  </si>
+  <si>
+    <t>Enter age in years</t>
+  </si>
+  <si>
+    <t>Introduza a idade em anos</t>
+  </si>
+  <si>
+    <t>. &gt;= 6 and . &lt;= 7</t>
+  </si>
+  <si>
+    <t>The age must be between 6 and 7 years</t>
+  </si>
+  <si>
+    <t>A idade deve estar entre 6 e 7 anos</t>
+  </si>
+  <si>
+    <t>p_how_long_lived</t>
+  </si>
+  <si>
+    <t>How many years has the respondent lived in the area?</t>
+  </si>
+  <si>
+    <t>Há quantos anos o entrevistado vive na área?</t>
+  </si>
+  <si>
+    <t>. &lt;= ${p_age_yrs}</t>
+  </si>
+  <si>
+    <t>The value must not be greater than the age</t>
+  </si>
+  <si>
+    <t>O valor não deve ser maior que a idade</t>
+  </si>
+  <si>
+    <t>p_id_sequence</t>
+  </si>
+  <si>
+    <t>Enter the sequence ID</t>
+  </si>
+  <si>
+    <t>Digite o número do participante</t>
+  </si>
+  <si>
+    <t>. &gt; 0</t>
+  </si>
+  <si>
+    <t>The number must be greater than 0</t>
+  </si>
+  <si>
+    <t>O número deve ser maior que 0</t>
+  </si>
+  <si>
+    <t>p_code_id</t>
+  </si>
+  <si>
+    <t>Please record the following unique ID code for the respondent on a separate list and on each diagnostic test(s) administered</t>
+  </si>
+  <si>
+    <t>Registre o codigo exclusivo do entrevistadoem cada teste de diagnostico administrado</t>
+  </si>
+  <si>
+    <t>concat(${p_cluster_id}, '-', ${p_recorder_id}, '-', ${p_id_sequence})</t>
+  </si>
+  <si>
     <t>note</t>
   </si>
   <si>
@@ -192,87 +273,6 @@
     <t>Tipo de casa/construcao</t>
   </si>
   <si>
-    <t>select_one sex_list</t>
-  </si>
-  <si>
-    <t>p_sex</t>
-  </si>
-  <si>
-    <t>Sex of respondent</t>
-  </si>
-  <si>
-    <t>Sexo do entrevistado</t>
-  </si>
-  <si>
-    <t>${p_consent} = 'Sim'</t>
-  </si>
-  <si>
-    <t>p_age_yrs</t>
-  </si>
-  <si>
-    <t>Enter age in years</t>
-  </si>
-  <si>
-    <t>Introduza a idade em anos</t>
-  </si>
-  <si>
-    <t>. &gt;= 6 and . &lt;= 7</t>
-  </si>
-  <si>
-    <t>The age must be between 6 and 7 years</t>
-  </si>
-  <si>
-    <t>A idade deve estar entre 6 e 7 anos</t>
-  </si>
-  <si>
-    <t>p_how_long_lived</t>
-  </si>
-  <si>
-    <t>How many years has the respondent lived in the area?</t>
-  </si>
-  <si>
-    <t>Há quantos anos o entrevistado vive na área?</t>
-  </si>
-  <si>
-    <t>. &lt;= ${p_age_yrs}</t>
-  </si>
-  <si>
-    <t>The value must not be greater than the age</t>
-  </si>
-  <si>
-    <t>O valor não deve ser maior que a idade</t>
-  </si>
-  <si>
-    <t>p_id_sequence</t>
-  </si>
-  <si>
-    <t>Enter the sequence ID</t>
-  </si>
-  <si>
-    <t>Digite o número do participante</t>
-  </si>
-  <si>
-    <t>. &gt; 0</t>
-  </si>
-  <si>
-    <t>The number must be greater than 0</t>
-  </si>
-  <si>
-    <t>O número deve ser maior que 0</t>
-  </si>
-  <si>
-    <t>p_code_id</t>
-  </si>
-  <si>
-    <t>Please record the following unique ID code for the respondent on a separate list and on each diagnostic test(s) administered</t>
-  </si>
-  <si>
-    <t>Registre o codigo exclusivo do entrevistadoem cada teste de diagnostico administrado</t>
-  </si>
-  <si>
-    <t>concat(${p_cluster_id}, '-', ${p_recorder_id}, '-', ${p_id_sequence})</t>
-  </si>
-  <si>
     <t>p_ending_survey_note</t>
   </si>
   <si>
@@ -387,10 +387,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(Nov 2021) TAS2 FL - 2. Inscrição V2</t>
-  </si>
-  <si>
-    <t>mz_lf_tas2_2_participant_202111_v2</t>
+    <t>(Nov 2021) TAS2 FL - 2. Inscrição V2.1</t>
+  </si>
+  <si>
+    <t>mz_lf_tas2_2_participant_202111_v2_1</t>
   </si>
   <si>
     <t>Portuguese</t>
@@ -401,10 +401,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -464,6 +464,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -472,13 +479,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -503,6 +503,87 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -513,87 +594,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -621,37 +621,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,31 +753,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,103 +795,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,8 +887,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -904,6 +904,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -925,129 +936,118 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1056,16 +1056,16 @@
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1077,10 +1077,10 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1506,7 +1506,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="$A12:$XFD12"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="$A8:$XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1759,7 +1759,7 @@
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" s="3" customFormat="1" ht="31.5" spans="1:16">
+    <row r="8" s="3" customFormat="1" spans="1:16">
       <c r="A8" s="8" t="s">
         <v>44</v>
       </c>
@@ -1775,260 +1775,260 @@
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="11"/>
+      <c r="H8" s="9"/>
       <c r="I8" s="10"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="9"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
+      <c r="M8" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:16">
-      <c r="A9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>48</v>
+    <row r="9" s="5" customFormat="1" customHeight="1" spans="1:16">
+      <c r="A9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="9"/>
+      <c r="H9" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
+      <c r="M9" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" s="3" customFormat="1" spans="1:16">
+    <row r="10" s="3" customFormat="1" ht="31.5" spans="1:16">
       <c r="A10" s="8" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="20" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F10" s="20"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-    </row>
-    <row r="11" s="3" customFormat="1" spans="1:16">
-      <c r="A11" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="10"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" s="11"/>
+      <c r="M10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+    </row>
+    <row r="11" s="3" customFormat="1" spans="1:13">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="14"/>
       <c r="E11" s="20" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F11" s="20"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-    </row>
-    <row r="12" s="3" customFormat="1" spans="1:16">
-      <c r="A12" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="10"/>
+      <c r="H11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" ht="47.25" spans="1:17">
+      <c r="A12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="23"/>
+      <c r="I12" s="28"/>
       <c r="J12" s="27"/>
-      <c r="K12" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9" t="s">
+      <c r="K12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="M12" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-    </row>
-    <row r="13" s="5" customFormat="1" customHeight="1" spans="1:16">
-      <c r="A13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>63</v>
+      <c r="Q12" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="1" ht="31.5" spans="1:16">
+      <c r="A13" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="20" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>62</v>
-      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="9"/>
       <c r="L13" s="9"/>
-      <c r="M13" s="9" t="s">
-        <v>26</v>
-      </c>
+      <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" s="3" customFormat="1" ht="31.5" spans="1:16">
+    <row r="14" s="3" customFormat="1" spans="1:16">
       <c r="A14" s="8" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="20" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F14" s="20"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="L14" s="11"/>
-      <c r="M14" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-    </row>
-    <row r="15" s="3" customFormat="1" spans="1:13">
-      <c r="A15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="14"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+    </row>
+    <row r="15" s="3" customFormat="1" spans="1:16">
+      <c r="A15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="10"/>
       <c r="E15" s="20" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F15" s="20"/>
-      <c r="H15" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I15" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="J15" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" s="3" customFormat="1" ht="47.25" spans="1:17">
-      <c r="A16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="13" t="s">
+      <c r="G15" s="9"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+    </row>
+    <row r="16" s="3" customFormat="1" spans="1:16">
+      <c r="A16" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="B16" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="23" t="s">
+      <c r="C16" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="L16" s="3" t="s">
+      <c r="D16" s="10"/>
+      <c r="E16" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="M16" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
     </row>
     <row r="17" s="3" customFormat="1" ht="31.5" spans="1:16">
       <c r="A17" s="8" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>85</v>
